--- a/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>Bold</x:t>
   </x:si>
@@ -44,6 +44,12 @@
   </x:si>
   <x:si>
     <x:t>VerticalAlignment - Superscript</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Major</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -53,7 +59,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="11">
+  <x:fonts count="13">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -135,6 +141,22 @@
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="major"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -164,83 +186,97 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+  <x:cellStyleXfs count="13">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+  <x:cellXfs count="13">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -539,7 +575,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B11"/>
+  <x:dimension ref="A1:B13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -599,6 +635,16 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="B12" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="B13" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
